--- a/Testcase_DA3.xlsx
+++ b/Testcase_DA3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12130" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12130" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TestReport" sheetId="12" r:id="rId1"/>
@@ -21,7 +21,12 @@
     <sheet name="TaiKhoan" sheetId="8" r:id="rId7"/>
     <sheet name="Đổi mật khẩu" sheetId="14" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="270">
   <si>
     <t>Item Test</t>
   </si>
@@ -400,13 +405,7 @@
 B2: Nhấn enter/click button</t>
   </si>
   <si>
-    <t>Hệ thống trả ra danh sách rồng</t>
-  </si>
-  <si>
     <t>Tìm kiếm với ký tự đặc biệt</t>
-  </si>
-  <si>
-    <t>Tìm kiếm với chuỗi rồng</t>
   </si>
   <si>
     <t xml:space="preserve">Tìm kiếm với 1 kí tự </t>
@@ -913,6 +912,30 @@
   </si>
   <si>
     <t>Hệ thống thông báo "Đăng nhập thành công"</t>
+  </si>
+  <si>
+    <t>Tìm kiếm</t>
+  </si>
+  <si>
+    <t>Giỏ hàng</t>
+  </si>
+  <si>
+    <t>Đặt hàng</t>
+  </si>
+  <si>
+    <t>Tài khoản</t>
+  </si>
+  <si>
+    <t>Đổi mật khẩu</t>
+  </si>
+  <si>
+    <t>Hệ thống trả ra danh sách rỗng</t>
+  </si>
+  <si>
+    <t>Tìm kiếm với chuỗi rỗng</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo lỗi "Emai"</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1549,32 +1572,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1592,7 +1589,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1848,9 +1845,6 @@
     <xf numFmtId="1" fontId="20" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1869,9 +1863,26 @@
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1903,24 +1914,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2687,6 +2680,96 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="TestReport"/>
+      <sheetName val="Đăng ký"/>
+      <sheetName val="Đăng nhập"/>
+      <sheetName val="Tìm kiếm "/>
+      <sheetName val="Giỏ hàng"/>
+      <sheetName val="Đặt hàng"/>
+      <sheetName val="TaiKhoan"/>
+      <sheetName val="Đổi mật khẩu"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="5">
+          <cell r="A5">
+            <v>8</v>
+          </cell>
+          <cell r="B5">
+            <v>2</v>
+          </cell>
+          <cell r="C5">
+            <v>0</v>
+          </cell>
+          <cell r="D5">
+            <v>0</v>
+          </cell>
+          <cell r="E5">
+            <v>10</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="TestReport"/>
+      <sheetName val="Đăng ký"/>
+      <sheetName val="Đăng nhập"/>
+      <sheetName val="Tìm kiếm "/>
+      <sheetName val="Giỏ hàng"/>
+      <sheetName val="Đặt hàng"/>
+      <sheetName val="TaiKhoan"/>
+      <sheetName val="Đổi mật khẩu"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="5">
+          <cell r="A5">
+            <v>6</v>
+          </cell>
+          <cell r="B5">
+            <v>4</v>
+          </cell>
+          <cell r="C5">
+            <v>0</v>
+          </cell>
+          <cell r="D5">
+            <v>0</v>
+          </cell>
+          <cell r="E5">
+            <v>10</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2952,10 +3035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2971,15 +3054,15 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24.5" x14ac:dyDescent="0.45">
       <c r="A1" s="75"/>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="76"/>
@@ -2996,60 +3079,60 @@
       <c r="B3" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="106" t="s">
+      <c r="D3" s="109"/>
+      <c r="E3" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="105"/>
-      <c r="G3" s="112" t="s">
+      <c r="F3" s="109"/>
+      <c r="G3" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="105"/>
+      <c r="H3" s="109"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="75"/>
       <c r="B4" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="106" t="s">
+      <c r="D4" s="109"/>
+      <c r="E4" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="105"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="105"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="109"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="75"/>
       <c r="B5" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="106" t="s">
+      <c r="C5" s="108"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="105"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="105"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="109"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="76"/>
       <c r="B6" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="105"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="109"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="76"/>
@@ -3168,182 +3251,246 @@
       <c r="B13" s="88">
         <v>3</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
+      <c r="C13" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" s="90">
+        <f>'[1]Tìm kiếm '!A5</f>
+        <v>8</v>
+      </c>
+      <c r="E13" s="90">
+        <f>'[1]Tìm kiếm '!B5</f>
+        <v>2</v>
+      </c>
+      <c r="F13" s="90">
+        <f>'[1]Tìm kiếm '!C5</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="90">
+        <f>'[1]Tìm kiếm '!D5</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="90">
+        <f>'[1]Tìm kiếm '!E5</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="82"/>
       <c r="B14" s="88">
         <v>4</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
+      <c r="C14" s="91" t="s">
+        <v>263</v>
+      </c>
+      <c r="D14" s="90">
+        <f>'Giỏ hàng'!A5</f>
+        <v>12</v>
+      </c>
+      <c r="E14" s="90">
+        <f>'Giỏ hàng'!B5</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="90">
+        <f>'Giỏ hàng'!C5</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="90">
+        <f>'Giỏ hàng'!D5</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="90">
+        <f>'Giỏ hàng'!E5</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="82"/>
       <c r="B15" s="88">
         <v>5</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
+      <c r="C15" s="91" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" s="90">
+        <f>'Đặt hàng'!A5</f>
+        <v>9</v>
+      </c>
+      <c r="E15" s="90">
+        <f>'Đặt hàng'!B5</f>
+        <v>5</v>
+      </c>
+      <c r="F15" s="90">
+        <f>'Đặt hàng'!C5</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="90">
+        <f>'Đặt hàng'!D5</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="90">
+        <f>'Đặt hàng'!E5</f>
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="82"/>
       <c r="B16" s="88">
         <v>6</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
+      <c r="C16" s="91" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16" s="90">
+        <f>[2]TaiKhoan!A5</f>
+        <v>6</v>
+      </c>
+      <c r="E16" s="90">
+        <f>[2]TaiKhoan!B5</f>
+        <v>4</v>
+      </c>
+      <c r="F16" s="90">
+        <f>[2]TaiKhoan!C5</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="90">
+        <f>[2]TaiKhoan!D5</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="90">
+        <f>[2]TaiKhoan!E5</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="82"/>
       <c r="B17" s="88">
         <v>7</v>
       </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
+      <c r="C17" s="91" t="s">
+        <v>266</v>
+      </c>
+      <c r="D17" s="90">
+        <f>'Đổi mật khẩu'!A5</f>
+        <v>7</v>
+      </c>
+      <c r="E17" s="90">
+        <f>'Đổi mật khẩu'!B5</f>
+        <v>3</v>
+      </c>
+      <c r="F17" s="90">
+        <f>'Đổi mật khẩu'!C5</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="90">
+        <f>'Đổi mật khẩu'!D5</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="90">
+        <f>'Đổi mật khẩu'!E5</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="82"/>
-      <c r="B18" s="88">
-        <v>8</v>
-      </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="94">
+        <f>SUM(D11:D17)</f>
+        <v>58</v>
+      </c>
+      <c r="E18" s="94">
+        <f>SUM(E11:E17)</f>
+        <v>19</v>
+      </c>
+      <c r="F18" s="94">
+        <f>SUM(F11:F17)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="94">
+        <f t="shared" ref="G18:H18" si="0">SUM(G11:G17)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="94">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="82"/>
-      <c r="B19" s="88">
+      <c r="A19" s="75"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="75"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="75"/>
+      <c r="E20" s="99">
+        <f>($D18+$E18)*100/$H18</f>
+        <v>100</v>
+      </c>
+      <c r="F20" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="82"/>
-      <c r="B20" s="88">
-        <v>10</v>
-      </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="100"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="82"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="95"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="75"/>
+      <c r="E21" s="99">
+        <f>$D18*100/($D18+$G18)</f>
+        <v>100</v>
+      </c>
+      <c r="F21" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="75"/>
+      <c r="H21" s="100"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="75"/>
-      <c r="B22" s="96"/>
+      <c r="B22" s="75"/>
       <c r="C22" s="75"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="75"/>
       <c r="B23" s="75"/>
-      <c r="C23" s="99" t="s">
-        <v>36</v>
-      </c>
+      <c r="C23" s="75"/>
       <c r="D23" s="75"/>
-      <c r="E23" s="100" t="e">
-        <f>($D21+$E21)*100/$H21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="75" t="s">
-        <v>9</v>
-      </c>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
       <c r="G23" s="75"/>
-      <c r="H23" s="101"/>
+      <c r="H23" s="75"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="75"/>
       <c r="B24" s="75"/>
-      <c r="C24" s="99" t="s">
-        <v>37</v>
-      </c>
+      <c r="C24" s="75"/>
       <c r="D24" s="75"/>
-      <c r="E24" s="100" t="e">
-        <f>$D21*100/($D21+$G21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F24" s="75" t="s">
-        <v>9</v>
-      </c>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
       <c r="G24" s="75"/>
-      <c r="H24" s="101"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="75"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="75"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="75"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
+      <c r="H24" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3367,8 +3514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="C20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3383,50 +3530,50 @@
     <col min="8" max="8" width="16.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="114"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="118"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="50" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="105"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="109"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="105"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -3528,7 +3675,7 @@
       <c r="H8" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="119" t="s">
+      <c r="I8" s="104" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3554,7 +3701,7 @@
       </c>
       <c r="G9" s="45">
         <f ca="1">TODAY()</f>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H9" s="70" t="s">
         <v>3</v>
@@ -3583,7 +3730,7 @@
       </c>
       <c r="G10" s="45">
         <f t="shared" ref="G10:G21" ca="1" si="0">TODAY()</f>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H10" s="70" t="s">
         <v>3</v>
@@ -3612,7 +3759,7 @@
       </c>
       <c r="G11" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H11" s="70" t="s">
         <v>3</v>
@@ -3641,7 +3788,7 @@
       </c>
       <c r="G12" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H12" s="70" t="s">
         <v>3</v>
@@ -3670,7 +3817,7 @@
       </c>
       <c r="G13" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H13" s="70" t="s">
         <v>3</v>
@@ -3699,7 +3846,7 @@
       </c>
       <c r="G14" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H14" s="70" t="s">
         <v>3</v>
@@ -3728,7 +3875,7 @@
       </c>
       <c r="G15" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H15" s="70" t="s">
         <v>3</v>
@@ -3757,7 +3904,7 @@
       </c>
       <c r="G16" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H16" s="70" t="s">
         <v>3</v>
@@ -3786,7 +3933,7 @@
       </c>
       <c r="G17" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H17" s="70" t="s">
         <v>3</v>
@@ -3815,7 +3962,7 @@
       </c>
       <c r="G18" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H18" s="70" t="s">
         <v>3</v>
@@ -3844,7 +3991,7 @@
       </c>
       <c r="G19" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H19" s="70" t="s">
         <v>3</v>
@@ -3873,7 +4020,7 @@
       </c>
       <c r="G20" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H20" s="70" t="s">
         <v>3</v>
@@ -3902,7 +4049,7 @@
       </c>
       <c r="G21" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H21" s="70" t="s">
         <v>3</v>
@@ -3931,7 +4078,7 @@
       </c>
       <c r="G22" s="50">
         <f t="shared" ref="G22:G23" ca="1" si="1">TODAY()</f>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H22" s="51" t="s">
         <v>3</v>
@@ -3943,7 +4090,7 @@
         <f>IF(AND(E23=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E22)+1,"##")&amp;"]")</f>
         <v>[DangKy-15]</v>
       </c>
-      <c r="B23" s="118" t="s">
+      <c r="B23" s="103" t="s">
         <v>86</v>
       </c>
       <c r="C23" s="34" t="s">
@@ -3960,7 +4107,7 @@
       </c>
       <c r="G23" s="50">
         <f t="shared" ca="1" si="1"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H23" s="51" t="s">
         <v>3</v>
@@ -3969,7 +4116,7 @@
     </row>
     <row r="24" spans="1:9" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="26"/>
-      <c r="B24" s="103"/>
+      <c r="B24" s="101"/>
       <c r="C24" s="71"/>
       <c r="D24" s="71"/>
       <c r="E24" s="71"/>
@@ -3979,7 +4126,7 @@
     </row>
     <row r="25" spans="1:9" s="25" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="26"/>
-      <c r="B25" s="103"/>
+      <c r="B25" s="101"/>
       <c r="C25" s="71"/>
       <c r="D25" s="71"/>
       <c r="E25" s="71"/>
@@ -3989,7 +4136,7 @@
     </row>
     <row r="26" spans="1:9" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="26"/>
-      <c r="B26" s="103"/>
+      <c r="B26" s="101"/>
       <c r="C26" s="71"/>
       <c r="D26" s="71"/>
       <c r="E26" s="71"/>
@@ -3999,7 +4146,7 @@
     </row>
     <row r="27" spans="1:9" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="26"/>
-      <c r="B27" s="103"/>
+      <c r="B27" s="101"/>
       <c r="C27" s="71"/>
       <c r="D27" s="71"/>
       <c r="E27" s="71"/>
@@ -4029,7 +4176,7 @@
     </row>
     <row r="30" spans="1:9" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="26"/>
-      <c r="B30" s="103"/>
+      <c r="B30" s="101"/>
       <c r="C30" s="71"/>
       <c r="D30" s="71"/>
       <c r="E30" s="71"/>
@@ -4138,8 +4285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="111" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A10" zoomScale="111" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4157,12 +4304,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="114"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="118"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -4172,10 +4319,10 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="105"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="109"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -4185,12 +4332,12 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="105"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -4324,7 +4471,7 @@
       </c>
       <c r="G9" s="45">
         <f t="shared" ref="G9:G20" ca="1" si="0">TODAY()</f>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H9" s="30" t="s">
         <v>3</v>
@@ -4353,7 +4500,7 @@
       </c>
       <c r="G10" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H10" s="30" t="s">
         <v>3</v>
@@ -4381,7 +4528,7 @@
       </c>
       <c r="G11" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H11" s="30" t="s">
         <v>3</v>
@@ -4392,7 +4539,7 @@
         <f>IF(AND(E12=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E11)+1,"##")&amp;"]")</f>
         <v>[DangNhap-4]</v>
       </c>
-      <c r="B12" s="117" t="s">
+      <c r="B12" s="102" t="s">
         <v>92</v>
       </c>
       <c r="C12" s="34" t="s">
@@ -4409,7 +4556,7 @@
       </c>
       <c r="G12" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>3</v>
@@ -4437,7 +4584,7 @@
       </c>
       <c r="G13" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H13" s="30" t="s">
         <v>3</v>
@@ -4465,7 +4612,7 @@
       </c>
       <c r="G14" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H14" s="30" t="s">
         <v>3</v>
@@ -4480,7 +4627,7 @@
       <c r="F15" s="49"/>
       <c r="G15" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H15" s="30" t="s">
         <v>3</v>
@@ -4495,7 +4642,7 @@
       <c r="F16" s="49"/>
       <c r="G16" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H16" s="30" t="s">
         <v>3</v>
@@ -4510,7 +4657,7 @@
       <c r="F17" s="49"/>
       <c r="G17" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>3</v>
@@ -4525,7 +4672,7 @@
       <c r="F18" s="49"/>
       <c r="G18" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H18" s="30" t="s">
         <v>3</v>
@@ -4540,7 +4687,7 @@
       <c r="F19" s="49"/>
       <c r="G19" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H19" s="30" t="s">
         <v>3</v>
@@ -4555,7 +4702,7 @@
       <c r="F20" s="49"/>
       <c r="G20" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H20" s="30" t="s">
         <v>3</v>
@@ -4570,7 +4717,7 @@
       <c r="F21" s="44"/>
       <c r="G21" s="50">
         <f t="shared" ref="G21" ca="1" si="1">TODAY()</f>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H21" s="51" t="s">
         <v>3</v>
@@ -4749,8 +4896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4768,12 +4915,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="114"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="118"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -4783,10 +4930,10 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="105"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="109"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -4796,12 +4943,12 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="105"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -4935,7 +5082,7 @@
       </c>
       <c r="G9" s="62">
         <f ca="1">TODAY()</f>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H9" s="30" t="s">
         <v>3</v>
@@ -4956,14 +5103,14 @@
         <v>109</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>110</v>
+        <v>267</v>
       </c>
       <c r="F10" s="59" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="62">
         <f t="shared" ref="G10:G16" ca="1" si="0">TODAY()</f>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H10" s="30" t="s">
         <v>3</v>
@@ -4975,23 +5122,23 @@
         <v>[TimKiem-3]</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>106</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>110</v>
+        <v>267</v>
       </c>
       <c r="F11" s="59" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H11" s="30" t="s">
         <v>3</v>
@@ -5003,23 +5150,23 @@
         <v>[TimKiem-4]</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>112</v>
+        <v>268</v>
       </c>
       <c r="C12" s="34" t="s">
         <v>106</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>110</v>
+        <v>267</v>
       </c>
       <c r="F12" s="59" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>3</v>
@@ -5031,7 +5178,7 @@
         <v>[TimKiem-5]</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C13" s="34" t="s">
         <v>106</v>
@@ -5040,14 +5187,14 @@
         <v>109</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F13" s="59" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H13" s="30" t="s">
         <v>3</v>
@@ -5059,23 +5206,23 @@
         <v>[TimKiem-6]</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>106</v>
       </c>
       <c r="D14" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="34" t="s">
         <v>117</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>119</v>
       </c>
       <c r="F14" s="59" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H14" s="30" t="s">
         <v>3</v>
@@ -5087,23 +5234,23 @@
         <v>[TimKiem-7]</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>106</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F15" s="59" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H15" s="30" t="s">
         <v>3</v>
@@ -5115,23 +5262,23 @@
         <v>[TimKiem-8]</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>106</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F16" s="59" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H16" s="30" t="s">
         <v>3</v>
@@ -5143,16 +5290,16 @@
         <v>[TimKiem-9]</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>106</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F17" s="59" t="s">
         <v>5</v>
@@ -5166,16 +5313,16 @@
         <v>[TimKiem-10]</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C18" s="34" t="s">
         <v>106</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F18" s="59" t="s">
         <v>4</v>
@@ -5446,12 +5593,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="114"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="118"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -5461,10 +5608,10 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="105"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="109"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -5474,12 +5621,12 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="105"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -5597,23 +5744,23 @@
         <v>[GioHang-1]</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>128</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>130</v>
       </c>
       <c r="F9" s="49" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="50">
         <f ca="1">TODAY()</f>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H9" s="51" t="s">
         <v>3</v>
@@ -5626,23 +5773,23 @@
         <v>[GioHang-2]</v>
       </c>
       <c r="B10" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="E10" s="34" t="s">
         <v>132</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>134</v>
       </c>
       <c r="F10" s="49" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="50">
         <f ca="1">TODAY()</f>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H10" s="51" t="s">
         <v>3</v>
@@ -5655,23 +5802,23 @@
         <v>[GioHang-3]</v>
       </c>
       <c r="B11" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="34" t="s">
         <v>135</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>137</v>
       </c>
       <c r="F11" s="49" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="50">
         <f t="shared" ref="G11:G12" ca="1" si="0">TODAY()</f>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H11" s="51" t="s">
         <v>3</v>
@@ -5684,23 +5831,23 @@
         <v>[GioHang-4]</v>
       </c>
       <c r="B12" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="34" t="s">
         <v>138</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>140</v>
       </c>
       <c r="F12" s="49" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="50">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H12" s="51" t="s">
         <v>3</v>
@@ -5713,16 +5860,16 @@
         <v>[GioHang-5]</v>
       </c>
       <c r="B13" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>143</v>
-      </c>
       <c r="E13" s="34" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F13" s="44" t="s">
         <v>4</v>
@@ -5737,16 +5884,16 @@
         <v>[GioHang-6]</v>
       </c>
       <c r="B14" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="43" t="s">
         <v>144</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>146</v>
       </c>
       <c r="F14" s="44" t="s">
         <v>4</v>
@@ -5760,16 +5907,16 @@
         <v>[GioHang-7]</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F15" s="44" t="s">
         <v>4</v>
@@ -5783,16 +5930,16 @@
         <v>[GioHang-8]</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D16" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="31" t="s">
         <v>150</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>152</v>
       </c>
       <c r="F16" s="49" t="s">
         <v>4</v>
@@ -5806,16 +5953,16 @@
         <v>[GioHang-9]</v>
       </c>
       <c r="B17" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="31" t="s">
         <v>153</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>155</v>
       </c>
       <c r="F17" s="49" t="s">
         <v>4</v>
@@ -5829,16 +5976,16 @@
         <v>[GioHang-10]</v>
       </c>
       <c r="B18" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" s="31" t="s">
         <v>156</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>158</v>
       </c>
       <c r="F18" s="49" t="s">
         <v>4</v>
@@ -5852,14 +5999,14 @@
         <v>[GioHang-11]</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C19" s="73"/>
       <c r="D19" s="36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F19" s="49" t="s">
         <v>4</v>
@@ -5873,14 +6020,14 @@
         <v>[GioHang-12]</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C20" s="34"/>
       <c r="D20" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F20" s="59" t="s">
         <v>4</v>
@@ -6004,8 +6151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6024,12 +6171,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="114"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="118"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -6039,10 +6186,10 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="105"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="109"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -6052,12 +6199,12 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="105"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -6175,23 +6322,23 @@
         <v>[DatHang-1]</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C9" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="66" t="s">
         <v>177</v>
-      </c>
-      <c r="D9" s="66" t="s">
-        <v>178</v>
-      </c>
-      <c r="E9" s="66" t="s">
-        <v>179</v>
       </c>
       <c r="F9" s="49" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="50">
         <f ca="1">TODAY()</f>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H9" s="51" t="s">
         <v>3</v>
@@ -6204,23 +6351,23 @@
         <v>[DatHang-2]</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F10" s="49" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="50">
         <f t="shared" ref="G10:G12" ca="1" si="0">TODAY()</f>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H10" s="51" t="s">
         <v>3</v>
@@ -6232,23 +6379,23 @@
         <v>[DatHang-3]</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>184</v>
+        <v>269</v>
       </c>
       <c r="F11" s="49" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="50">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H11" s="51" t="s">
         <v>3</v>
@@ -6260,23 +6407,23 @@
         <v>[DatHang-4]</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F12" s="49" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="50">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H12" s="51" t="s">
         <v>3</v>
@@ -6288,16 +6435,16 @@
         <v>[DatHang-5]</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F13" s="49" t="s">
         <v>4</v>
@@ -6315,13 +6462,13 @@
         <v>54</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F14" s="49" t="s">
         <v>4</v>
@@ -6335,16 +6482,16 @@
         <v>[DatHang-7]</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F15" s="49" t="s">
         <v>5</v>
@@ -6358,16 +6505,16 @@
         <v>[DatHang-8]</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D16" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" s="32" t="s">
         <v>189</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>191</v>
       </c>
       <c r="F16" s="49" t="s">
         <v>5</v>
@@ -6381,16 +6528,16 @@
         <v>[DatHang-9]</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F17" s="49" t="s">
         <v>5</v>
@@ -6404,16 +6551,16 @@
         <v>[DatHang-10]</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F18" s="49" t="s">
         <v>4</v>
@@ -6427,16 +6574,16 @@
         <v>[DatHang-11]</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F19" s="49" t="s">
         <v>4</v>
@@ -6450,16 +6597,16 @@
         <v>[DatHang-12]</v>
       </c>
       <c r="B20" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="34" t="s">
-        <v>177</v>
-      </c>
       <c r="D20" s="35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F20" s="49" t="s">
         <v>4</v>
@@ -6473,16 +6620,16 @@
         <v>[DatHang-13]</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F21" s="59" t="s">
         <v>5</v>
@@ -6496,16 +6643,16 @@
         <v>[DatHang-14]</v>
       </c>
       <c r="B22" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="E22" s="35" t="s">
         <v>200</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>202</v>
       </c>
       <c r="F22" s="59" t="s">
         <v>4</v>
@@ -6514,11 +6661,11 @@
       <c r="H22" s="51"/>
     </row>
     <row r="23" spans="1:8" s="41" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="120"/>
+      <c r="A23" s="105"/>
       <c r="B23" s="74"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
       <c r="F23" s="59"/>
       <c r="G23" s="67"/>
       <c r="H23" s="51"/>
@@ -6657,12 +6804,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="114"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="118"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -6672,10 +6819,10 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="105"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="109"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -6685,12 +6832,12 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="105"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -6808,23 +6955,23 @@
         <v>[TaiKhoan-1]</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C9" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="32" t="s">
         <v>212</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>214</v>
       </c>
       <c r="F9" s="49" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="50">
         <f ca="1">TODAY()</f>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H9" s="51" t="s">
         <v>3</v>
@@ -6837,23 +6984,23 @@
         <v>[TaiKhoan-2]</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F10" s="49" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="50">
         <f t="shared" ref="G10:G18" ca="1" si="0">TODAY()</f>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H10" s="51" t="s">
         <v>3</v>
@@ -6865,23 +7012,23 @@
         <v>[TaiKhoan-3]</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F11" s="49" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="50">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H11" s="51" t="s">
         <v>3</v>
@@ -6893,23 +7040,23 @@
         <v>[TaiKhoan-4]</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D12" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="34" t="s">
         <v>218</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>220</v>
       </c>
       <c r="F12" s="49" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H12" s="51" t="s">
         <v>3</v>
@@ -6921,23 +7068,23 @@
         <v>[TaiKhoan-5]</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F13" s="49" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H13" s="51" t="s">
         <v>3</v>
@@ -6949,23 +7096,23 @@
         <v>[TaiKhoan-6]</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F14" s="49" t="s">
         <v>5</v>
       </c>
       <c r="G14" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H14" s="51" t="s">
         <v>3</v>
@@ -6977,23 +7124,23 @@
         <v>[TaiKhoan-7]</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F15" s="49" t="s">
         <v>4</v>
       </c>
       <c r="G15" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H15" s="51" t="s">
         <v>3</v>
@@ -7005,23 +7152,23 @@
         <v>[TaiKhoan-8]</v>
       </c>
       <c r="B16" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="E16" s="34" t="s">
         <v>224</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>226</v>
       </c>
       <c r="F16" s="49" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H16" s="51" t="s">
         <v>3</v>
@@ -7033,23 +7180,23 @@
         <v>[TaiKhoan-9]</v>
       </c>
       <c r="B17" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="C17" s="34" t="s">
-        <v>212</v>
-      </c>
       <c r="D17" s="34" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F17" s="49" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H17" s="51" t="s">
         <v>3</v>
@@ -7061,23 +7208,23 @@
         <v>[TaiKhoan-10]</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F18" s="49" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H18" s="51" t="s">
         <v>3</v>
@@ -7294,7 +7441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
@@ -7314,25 +7461,25 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113" t="s">
-        <v>232</v>
-      </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="114"/>
+      <c r="B1" s="117" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="118"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="105"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="109"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -7342,18 +7489,18 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="105"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -7465,23 +7612,23 @@
         <v>[DoiMK-1]</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C9" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" s="32" t="s">
         <v>243</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>245</v>
       </c>
       <c r="F9" s="49" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="50">
         <f ca="1">TODAY()</f>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H9" s="51" t="s">
         <v>3</v>
@@ -7494,23 +7641,23 @@
         <v>[DoiMK-2]</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F10" s="49" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="50">
         <f t="shared" ref="G10:G18" ca="1" si="0">TODAY()</f>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H10" s="51" t="s">
         <v>3</v>
@@ -7522,23 +7669,23 @@
         <v>[DoiMK-3]</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F11" s="49" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="50">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H11" s="51" t="s">
         <v>3</v>
@@ -7550,23 +7697,23 @@
         <v>[DoiMK-4]</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F12" s="49" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H12" s="51" t="s">
         <v>3</v>
@@ -7578,23 +7725,23 @@
         <v>[DoiMK-5]</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F13" s="49" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H13" s="51" t="s">
         <v>3</v>
@@ -7606,23 +7753,23 @@
         <v>[DoiMK-6]</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F14" s="49" t="s">
         <v>4</v>
       </c>
       <c r="G14" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H14" s="51" t="s">
         <v>3</v>
@@ -7634,23 +7781,23 @@
         <v>[DoiMK-7]</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F15" s="49" t="s">
         <v>5</v>
       </c>
       <c r="G15" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H15" s="51" t="s">
         <v>3</v>
@@ -7662,23 +7809,23 @@
         <v>[DoiMK-8]</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F16" s="49" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H16" s="51" t="s">
         <v>3</v>
@@ -7690,23 +7837,23 @@
         <v>[DoiMK-9]</v>
       </c>
       <c r="B17" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="C17" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="C17" s="34" t="s">
-        <v>243</v>
-      </c>
       <c r="D17" s="32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F17" s="49" t="s">
         <v>5</v>
       </c>
       <c r="G17" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H17" s="51" t="s">
         <v>3</v>
@@ -7718,23 +7865,23 @@
         <v>[DoiMK-10]</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F18" s="49" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="H18" s="51" t="s">
         <v>3</v>

--- a/Testcase_DA3.xlsx
+++ b/Testcase_DA3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang\Desktop\DoAn3_LtaDuyen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12130" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12130" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TestReport" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,6 @@
     <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="270">
   <si>
     <t>Item Test</t>
   </si>
@@ -1125,7 +1124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1584,6 +1583,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1787,7 +1795,6 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1914,6 +1921,9 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3053,444 +3063,444 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="75"/>
-      <c r="B1" s="114" t="s">
+      <c r="A1" s="74"/>
+      <c r="B1" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="77"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="75"/>
-      <c r="B3" s="78" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="110" t="s">
+      <c r="D3" s="108"/>
+      <c r="E3" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="109"/>
-      <c r="G3" s="116" t="s">
+      <c r="F3" s="108"/>
+      <c r="G3" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="109"/>
+      <c r="H3" s="108"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="109"/>
-      <c r="E4" s="110" t="s">
+      <c r="D4" s="108"/>
+      <c r="E4" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="109"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="109"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="108"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="75"/>
-      <c r="B5" s="79" t="s">
+      <c r="A5" s="74"/>
+      <c r="B5" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="110" t="s">
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="109"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="108"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="76"/>
-      <c r="B6" s="79" t="s">
+      <c r="A6" s="75"/>
+      <c r="B6" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="109"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="108"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="76"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="77"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="76"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="75"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="77"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="76"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="75"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
     </row>
     <row r="10" spans="1:8" ht="26" x14ac:dyDescent="0.35">
-      <c r="A10" s="82"/>
-      <c r="B10" s="83" t="s">
+      <c r="A10" s="81"/>
+      <c r="B10" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="86" t="s">
+      <c r="G10" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="87" t="s">
+      <c r="H10" s="86" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="82"/>
-      <c r="B11" s="88">
+      <c r="A11" s="81"/>
+      <c r="B11" s="87">
         <v>1</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="90">
+      <c r="D11" s="89">
         <f>'Đăng ký'!A5</f>
         <v>10</v>
       </c>
-      <c r="E11" s="90">
+      <c r="E11" s="89">
         <f>'Đăng ký'!B5</f>
         <v>5</v>
       </c>
-      <c r="F11" s="90">
+      <c r="F11" s="89">
         <f>'Đăng ký'!C5</f>
         <v>0</v>
       </c>
-      <c r="G11" s="90">
+      <c r="G11" s="89">
         <f>'Đăng ký'!D5</f>
         <v>0</v>
       </c>
-      <c r="H11" s="90">
+      <c r="H11" s="89">
         <f>'Đăng ký'!E5</f>
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="82"/>
-      <c r="B12" s="88">
+      <c r="A12" s="81"/>
+      <c r="B12" s="87">
         <v>2</v>
       </c>
-      <c r="C12" s="91" t="s">
+      <c r="C12" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="90">
+      <c r="D12" s="89">
         <f>'Đăng nhập'!A5</f>
         <v>6</v>
       </c>
-      <c r="E12" s="90">
+      <c r="E12" s="89">
         <f>'Đăng nhập'!B5</f>
         <v>0</v>
       </c>
-      <c r="F12" s="90">
+      <c r="F12" s="89">
         <f>'Đăng nhập'!C5</f>
         <v>0</v>
       </c>
-      <c r="G12" s="90">
+      <c r="G12" s="89">
         <f>'Đăng nhập'!D5</f>
         <v>0</v>
       </c>
-      <c r="H12" s="90">
+      <c r="H12" s="89">
         <f>'Đăng nhập'!E5</f>
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="82"/>
-      <c r="B13" s="88">
+      <c r="A13" s="81"/>
+      <c r="B13" s="87">
         <v>3</v>
       </c>
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="90" t="s">
         <v>262</v>
       </c>
-      <c r="D13" s="90">
+      <c r="D13" s="89">
         <f>'[1]Tìm kiếm '!A5</f>
         <v>8</v>
       </c>
-      <c r="E13" s="90">
+      <c r="E13" s="89">
         <f>'[1]Tìm kiếm '!B5</f>
         <v>2</v>
       </c>
-      <c r="F13" s="90">
+      <c r="F13" s="89">
         <f>'[1]Tìm kiếm '!C5</f>
         <v>0</v>
       </c>
-      <c r="G13" s="90">
+      <c r="G13" s="89">
         <f>'[1]Tìm kiếm '!D5</f>
         <v>0</v>
       </c>
-      <c r="H13" s="90">
+      <c r="H13" s="89">
         <f>'[1]Tìm kiếm '!E5</f>
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="82"/>
-      <c r="B14" s="88">
+      <c r="A14" s="81"/>
+      <c r="B14" s="87">
         <v>4</v>
       </c>
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="90" t="s">
         <v>263</v>
       </c>
-      <c r="D14" s="90">
+      <c r="D14" s="89">
         <f>'Giỏ hàng'!A5</f>
         <v>12</v>
       </c>
-      <c r="E14" s="90">
+      <c r="E14" s="89">
         <f>'Giỏ hàng'!B5</f>
         <v>0</v>
       </c>
-      <c r="F14" s="90">
+      <c r="F14" s="89">
         <f>'Giỏ hàng'!C5</f>
         <v>0</v>
       </c>
-      <c r="G14" s="90">
+      <c r="G14" s="89">
         <f>'Giỏ hàng'!D5</f>
         <v>0</v>
       </c>
-      <c r="H14" s="90">
+      <c r="H14" s="89">
         <f>'Giỏ hàng'!E5</f>
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="82"/>
-      <c r="B15" s="88">
+      <c r="A15" s="81"/>
+      <c r="B15" s="87">
         <v>5</v>
       </c>
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="90" t="s">
         <v>264</v>
       </c>
-      <c r="D15" s="90">
+      <c r="D15" s="89">
         <f>'Đặt hàng'!A5</f>
         <v>9</v>
       </c>
-      <c r="E15" s="90">
+      <c r="E15" s="89">
         <f>'Đặt hàng'!B5</f>
         <v>5</v>
       </c>
-      <c r="F15" s="90">
+      <c r="F15" s="89">
         <f>'Đặt hàng'!C5</f>
         <v>0</v>
       </c>
-      <c r="G15" s="90">
+      <c r="G15" s="89">
         <f>'Đặt hàng'!D5</f>
         <v>0</v>
       </c>
-      <c r="H15" s="90">
+      <c r="H15" s="89">
         <f>'Đặt hàng'!E5</f>
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="82"/>
-      <c r="B16" s="88">
+      <c r="A16" s="81"/>
+      <c r="B16" s="87">
         <v>6</v>
       </c>
-      <c r="C16" s="91" t="s">
+      <c r="C16" s="90" t="s">
         <v>265</v>
       </c>
-      <c r="D16" s="90">
+      <c r="D16" s="89">
         <f>[2]TaiKhoan!A5</f>
         <v>6</v>
       </c>
-      <c r="E16" s="90">
+      <c r="E16" s="89">
         <f>[2]TaiKhoan!B5</f>
         <v>4</v>
       </c>
-      <c r="F16" s="90">
+      <c r="F16" s="89">
         <f>[2]TaiKhoan!C5</f>
         <v>0</v>
       </c>
-      <c r="G16" s="90">
+      <c r="G16" s="89">
         <f>[2]TaiKhoan!D5</f>
         <v>0</v>
       </c>
-      <c r="H16" s="90">
+      <c r="H16" s="89">
         <f>[2]TaiKhoan!E5</f>
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="82"/>
-      <c r="B17" s="88">
+      <c r="A17" s="81"/>
+      <c r="B17" s="87">
         <v>7</v>
       </c>
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="90" t="s">
         <v>266</v>
       </c>
-      <c r="D17" s="90">
+      <c r="D17" s="89">
         <f>'Đổi mật khẩu'!A5</f>
         <v>7</v>
       </c>
-      <c r="E17" s="90">
+      <c r="E17" s="89">
         <f>'Đổi mật khẩu'!B5</f>
         <v>3</v>
       </c>
-      <c r="F17" s="90">
+      <c r="F17" s="89">
         <f>'Đổi mật khẩu'!C5</f>
         <v>0</v>
       </c>
-      <c r="G17" s="90">
+      <c r="G17" s="89">
         <f>'Đổi mật khẩu'!D5</f>
         <v>0</v>
       </c>
-      <c r="H17" s="90">
+      <c r="H17" s="89">
         <f>'Đổi mật khẩu'!E5</f>
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="82"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="93" t="s">
+      <c r="A18" s="81"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="94">
+      <c r="D18" s="93">
         <f>SUM(D11:D17)</f>
         <v>58</v>
       </c>
-      <c r="E18" s="94">
+      <c r="E18" s="93">
         <f>SUM(E11:E17)</f>
         <v>19</v>
       </c>
-      <c r="F18" s="94">
+      <c r="F18" s="93">
         <f>SUM(F11:F17)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="94">
+      <c r="G18" s="93">
         <f t="shared" ref="G18:H18" si="0">SUM(G11:G17)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="94">
+      <c r="H18" s="93">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="75"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="75"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="98" t="s">
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="75"/>
-      <c r="E20" s="99">
+      <c r="D20" s="74"/>
+      <c r="E20" s="98">
         <f>($D18+$E18)*100/$H18</f>
         <v>100</v>
       </c>
-      <c r="F20" s="75" t="s">
+      <c r="F20" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="75"/>
-      <c r="H20" s="100"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="99"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="75"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="98" t="s">
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="99">
+      <c r="D21" s="74"/>
+      <c r="E21" s="98">
         <f>$D18*100/($D18+$G18)</f>
         <v>100</v>
       </c>
-      <c r="F21" s="75" t="s">
+      <c r="F21" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="75"/>
-      <c r="H21" s="100"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="99"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="75"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="75"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="75"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3514,7 +3524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="C20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -3534,12 +3544,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="118"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="117"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -3549,10 +3559,10 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="109"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -3562,12 +3572,12 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="109"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -3675,7 +3685,7 @@
       <c r="H8" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="104" t="s">
+      <c r="I8" s="103" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3701,9 +3711,9 @@
       </c>
       <c r="G9" s="45">
         <f ca="1">TODAY()</f>
-        <v>45773</v>
-      </c>
-      <c r="H9" s="70" t="s">
+        <v>45782</v>
+      </c>
+      <c r="H9" s="69" t="s">
         <v>3</v>
       </c>
       <c r="I9" s="52"/>
@@ -3730,9 +3740,9 @@
       </c>
       <c r="G10" s="45">
         <f t="shared" ref="G10:G21" ca="1" si="0">TODAY()</f>
-        <v>45773</v>
-      </c>
-      <c r="H10" s="70" t="s">
+        <v>45782</v>
+      </c>
+      <c r="H10" s="69" t="s">
         <v>3</v>
       </c>
       <c r="I10" s="52"/>
@@ -3759,9 +3769,9 @@
       </c>
       <c r="G11" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
-      </c>
-      <c r="H11" s="70" t="s">
+        <v>45782</v>
+      </c>
+      <c r="H11" s="69" t="s">
         <v>3</v>
       </c>
       <c r="I11" s="52"/>
@@ -3788,9 +3798,9 @@
       </c>
       <c r="G12" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
-      </c>
-      <c r="H12" s="70" t="s">
+        <v>45782</v>
+      </c>
+      <c r="H12" s="69" t="s">
         <v>3</v>
       </c>
       <c r="I12" s="52"/>
@@ -3817,9 +3827,9 @@
       </c>
       <c r="G13" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
-      </c>
-      <c r="H13" s="70" t="s">
+        <v>45782</v>
+      </c>
+      <c r="H13" s="69" t="s">
         <v>3</v>
       </c>
       <c r="I13" s="52"/>
@@ -3846,9 +3856,9 @@
       </c>
       <c r="G14" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
-      </c>
-      <c r="H14" s="70" t="s">
+        <v>45782</v>
+      </c>
+      <c r="H14" s="69" t="s">
         <v>3</v>
       </c>
       <c r="I14" s="52"/>
@@ -3875,9 +3885,9 @@
       </c>
       <c r="G15" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
-      </c>
-      <c r="H15" s="70" t="s">
+        <v>45782</v>
+      </c>
+      <c r="H15" s="69" t="s">
         <v>3</v>
       </c>
       <c r="I15" s="52"/>
@@ -3904,9 +3914,9 @@
       </c>
       <c r="G16" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
-      </c>
-      <c r="H16" s="70" t="s">
+        <v>45782</v>
+      </c>
+      <c r="H16" s="69" t="s">
         <v>3</v>
       </c>
       <c r="I16" s="52"/>
@@ -3933,9 +3943,9 @@
       </c>
       <c r="G17" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
-      </c>
-      <c r="H17" s="70" t="s">
+        <v>45782</v>
+      </c>
+      <c r="H17" s="69" t="s">
         <v>3</v>
       </c>
       <c r="I17" s="52"/>
@@ -3962,9 +3972,9 @@
       </c>
       <c r="G18" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
-      </c>
-      <c r="H18" s="70" t="s">
+        <v>45782</v>
+      </c>
+      <c r="H18" s="69" t="s">
         <v>3</v>
       </c>
       <c r="I18" s="52"/>
@@ -3991,9 +4001,9 @@
       </c>
       <c r="G19" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
-      </c>
-      <c r="H19" s="70" t="s">
+        <v>45782</v>
+      </c>
+      <c r="H19" s="69" t="s">
         <v>3</v>
       </c>
       <c r="I19" s="52"/>
@@ -4020,9 +4030,9 @@
       </c>
       <c r="G20" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
-      </c>
-      <c r="H20" s="70" t="s">
+        <v>45782</v>
+      </c>
+      <c r="H20" s="69" t="s">
         <v>3</v>
       </c>
       <c r="I20" s="52"/>
@@ -4049,9 +4059,9 @@
       </c>
       <c r="G21" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
-      </c>
-      <c r="H21" s="70" t="s">
+        <v>45782</v>
+      </c>
+      <c r="H21" s="69" t="s">
         <v>3</v>
       </c>
       <c r="I21" s="52"/>
@@ -4078,7 +4088,7 @@
       </c>
       <c r="G22" s="50">
         <f t="shared" ref="G22:G23" ca="1" si="1">TODAY()</f>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H22" s="51" t="s">
         <v>3</v>
@@ -4090,7 +4100,7 @@
         <f>IF(AND(E23=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E22)+1,"##")&amp;"]")</f>
         <v>[DangKy-15]</v>
       </c>
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="102" t="s">
         <v>86</v>
       </c>
       <c r="C23" s="34" t="s">
@@ -4107,7 +4117,7 @@
       </c>
       <c r="G23" s="50">
         <f t="shared" ca="1" si="1"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H23" s="51" t="s">
         <v>3</v>
@@ -4116,120 +4126,120 @@
     </row>
     <row r="24" spans="1:9" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="26"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
       <c r="F24" s="27"/>
       <c r="G24" s="28"/>
       <c r="H24" s="29"/>
     </row>
     <row r="25" spans="1:9" s="25" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="26"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
       <c r="F25" s="27"/>
       <c r="G25" s="28"/>
       <c r="H25" s="29"/>
     </row>
     <row r="26" spans="1:9" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="26"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
       <c r="F26" s="27"/>
       <c r="G26" s="28"/>
       <c r="H26" s="29"/>
     </row>
     <row r="27" spans="1:9" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="26"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
       <c r="F27" s="27"/>
       <c r="G27" s="28"/>
       <c r="H27" s="29"/>
     </row>
     <row r="28" spans="1:9" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="26"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
       <c r="F28" s="27"/>
       <c r="G28" s="28"/>
       <c r="H28" s="29"/>
     </row>
     <row r="29" spans="1:9" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="26"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
       <c r="F29" s="27"/>
       <c r="G29" s="28"/>
       <c r="H29" s="29"/>
     </row>
     <row r="30" spans="1:9" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="26"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
       <c r="F30" s="27"/>
       <c r="G30" s="28"/>
       <c r="H30" s="29"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="26"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="72"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="71"/>
       <c r="F31" s="27"/>
       <c r="G31" s="28"/>
       <c r="H31" s="29"/>
     </row>
     <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="26"/>
-      <c r="B32" s="72"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="72"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="71"/>
       <c r="F32" s="27"/>
       <c r="G32" s="28"/>
       <c r="H32" s="29"/>
     </row>
     <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="26"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="72"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="71"/>
       <c r="F33" s="27"/>
       <c r="G33" s="28"/>
       <c r="H33" s="29"/>
     </row>
     <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="26"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="72"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="71"/>
       <c r="F34" s="27"/>
       <c r="G34" s="28"/>
       <c r="H34" s="29"/>
     </row>
     <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="26"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="72"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="71"/>
       <c r="F35" s="27"/>
       <c r="G35" s="28"/>
       <c r="H35" s="29"/>
@@ -4285,7 +4295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="111" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="111" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -4304,12 +4314,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="118"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="117"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -4319,10 +4329,10 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="109"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -4332,12 +4342,12 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="109"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -4471,7 +4481,7 @@
       </c>
       <c r="G9" s="45">
         <f t="shared" ref="G9:G20" ca="1" si="0">TODAY()</f>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H9" s="30" t="s">
         <v>3</v>
@@ -4500,7 +4510,7 @@
       </c>
       <c r="G10" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H10" s="30" t="s">
         <v>3</v>
@@ -4528,7 +4538,7 @@
       </c>
       <c r="G11" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H11" s="30" t="s">
         <v>3</v>
@@ -4539,7 +4549,7 @@
         <f>IF(AND(E12=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E11)+1,"##")&amp;"]")</f>
         <v>[DangNhap-4]</v>
       </c>
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="101" t="s">
         <v>92</v>
       </c>
       <c r="C12" s="34" t="s">
@@ -4556,7 +4566,7 @@
       </c>
       <c r="G12" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>3</v>
@@ -4584,7 +4594,7 @@
       </c>
       <c r="G13" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H13" s="30" t="s">
         <v>3</v>
@@ -4612,7 +4622,7 @@
       </c>
       <c r="G14" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H14" s="30" t="s">
         <v>3</v>
@@ -4627,7 +4637,7 @@
       <c r="F15" s="49"/>
       <c r="G15" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H15" s="30" t="s">
         <v>3</v>
@@ -4642,7 +4652,7 @@
       <c r="F16" s="49"/>
       <c r="G16" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H16" s="30" t="s">
         <v>3</v>
@@ -4657,7 +4667,7 @@
       <c r="F17" s="49"/>
       <c r="G17" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>3</v>
@@ -4672,7 +4682,7 @@
       <c r="F18" s="49"/>
       <c r="G18" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H18" s="30" t="s">
         <v>3</v>
@@ -4687,7 +4697,7 @@
       <c r="F19" s="49"/>
       <c r="G19" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H19" s="30" t="s">
         <v>3</v>
@@ -4702,7 +4712,7 @@
       <c r="F20" s="49"/>
       <c r="G20" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H20" s="30" t="s">
         <v>3</v>
@@ -4717,7 +4727,7 @@
       <c r="F21" s="44"/>
       <c r="G21" s="50">
         <f t="shared" ref="G21" ca="1" si="1">TODAY()</f>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H21" s="51" t="s">
         <v>3</v>
@@ -4776,9 +4786,9 @@
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="63"/>
-      <c r="B27" s="72"/>
+      <c r="B27" s="71"/>
       <c r="C27" s="34"/>
-      <c r="D27" s="71"/>
+      <c r="D27" s="70"/>
       <c r="E27" s="34"/>
       <c r="F27" s="44"/>
       <c r="G27" s="50"/>
@@ -4786,9 +4796,9 @@
     </row>
     <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="63"/>
-      <c r="B28" s="72"/>
+      <c r="B28" s="71"/>
       <c r="C28" s="34"/>
-      <c r="D28" s="71"/>
+      <c r="D28" s="70"/>
       <c r="E28" s="34"/>
       <c r="F28" s="44"/>
       <c r="G28" s="50"/>
@@ -4796,9 +4806,9 @@
     </row>
     <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="63"/>
-      <c r="B29" s="72"/>
+      <c r="B29" s="71"/>
       <c r="C29" s="34"/>
-      <c r="D29" s="71"/>
+      <c r="D29" s="70"/>
       <c r="E29" s="34"/>
       <c r="F29" s="44"/>
       <c r="G29" s="50"/>
@@ -4806,9 +4816,9 @@
     </row>
     <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="63"/>
-      <c r="B30" s="72"/>
+      <c r="B30" s="71"/>
       <c r="C30" s="34"/>
-      <c r="D30" s="71"/>
+      <c r="D30" s="70"/>
       <c r="E30" s="34"/>
       <c r="F30" s="44"/>
       <c r="G30" s="50"/>
@@ -4816,9 +4826,9 @@
     </row>
     <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="63"/>
-      <c r="B31" s="72"/>
+      <c r="B31" s="71"/>
       <c r="C31" s="34"/>
-      <c r="D31" s="71"/>
+      <c r="D31" s="70"/>
       <c r="E31" s="34"/>
       <c r="F31" s="44"/>
       <c r="G31" s="50"/>
@@ -4915,12 +4925,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="118"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="117"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -4930,10 +4940,10 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="109"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -4943,12 +4953,12 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="109"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -5082,7 +5092,7 @@
       </c>
       <c r="G9" s="62">
         <f ca="1">TODAY()</f>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H9" s="30" t="s">
         <v>3</v>
@@ -5110,7 +5120,7 @@
       </c>
       <c r="G10" s="62">
         <f t="shared" ref="G10:G16" ca="1" si="0">TODAY()</f>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H10" s="30" t="s">
         <v>3</v>
@@ -5138,7 +5148,7 @@
       </c>
       <c r="G11" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H11" s="30" t="s">
         <v>3</v>
@@ -5166,7 +5176,7 @@
       </c>
       <c r="G12" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>3</v>
@@ -5194,7 +5204,7 @@
       </c>
       <c r="G13" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H13" s="30" t="s">
         <v>3</v>
@@ -5222,7 +5232,7 @@
       </c>
       <c r="G14" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H14" s="30" t="s">
         <v>3</v>
@@ -5250,7 +5260,7 @@
       </c>
       <c r="G15" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H15" s="30" t="s">
         <v>3</v>
@@ -5278,7 +5288,7 @@
       </c>
       <c r="G16" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H16" s="30" t="s">
         <v>3</v>
@@ -5573,8 +5583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5593,12 +5603,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="118"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="117"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -5608,10 +5618,10 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="109"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -5621,12 +5631,12 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="109"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -5760,9 +5770,9 @@
       </c>
       <c r="G9" s="50">
         <f ca="1">TODAY()</f>
-        <v>45773</v>
-      </c>
-      <c r="H9" s="51" t="s">
+        <v>45782</v>
+      </c>
+      <c r="H9" s="120" t="s">
         <v>3</v>
       </c>
       <c r="I9" s="52"/>
@@ -5787,11 +5797,11 @@
       <c r="F10" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="50">
+      <c r="G10" s="45">
         <f ca="1">TODAY()</f>
-        <v>45773</v>
-      </c>
-      <c r="H10" s="51" t="s">
+        <v>45782</v>
+      </c>
+      <c r="H10" s="30" t="s">
         <v>3</v>
       </c>
       <c r="I10" s="52"/>
@@ -5816,14 +5826,14 @@
       <c r="F11" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="50">
-        <f t="shared" ref="G11:G12" ca="1" si="0">TODAY()</f>
-        <v>45773</v>
-      </c>
-      <c r="H11" s="51" t="s">
+      <c r="G11" s="45">
+        <f t="shared" ref="G11:G20" ca="1" si="0">TODAY()</f>
+        <v>45782</v>
+      </c>
+      <c r="H11" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="69"/>
+      <c r="I11" s="52"/>
     </row>
     <row r="12" spans="1:9" s="41" customFormat="1" ht="62" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="str">
@@ -5845,14 +5855,14 @@
       <c r="F12" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
-      </c>
-      <c r="H12" s="51" t="s">
+        <v>45782</v>
+      </c>
+      <c r="H12" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="69"/>
+      <c r="I12" s="52"/>
     </row>
     <row r="13" spans="1:9" s="41" customFormat="1" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="str">
@@ -5874,8 +5884,13 @@
       <c r="F13" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="51"/>
+      <c r="G13" s="45">
+        <f t="shared" ca="1" si="0"/>
+        <v>45782</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>3</v>
+      </c>
       <c r="I13" s="52"/>
     </row>
     <row r="14" spans="1:9" s="41" customFormat="1" ht="62" x14ac:dyDescent="0.35">
@@ -5898,8 +5913,14 @@
       <c r="F14" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
+      <c r="G14" s="45">
+        <f t="shared" ca="1" si="0"/>
+        <v>45782</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="52"/>
     </row>
     <row r="15" spans="1:9" s="41" customFormat="1" ht="110.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="30" t="str">
@@ -5921,8 +5942,14 @@
       <c r="F15" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="51"/>
+      <c r="G15" s="45">
+        <f t="shared" ca="1" si="0"/>
+        <v>45782</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="52"/>
     </row>
     <row r="16" spans="1:9" s="41" customFormat="1" ht="62" x14ac:dyDescent="0.35">
       <c r="A16" s="30" t="str">
@@ -5944,10 +5971,16 @@
       <c r="F16" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="51"/>
-    </row>
-    <row r="17" spans="1:8" s="41" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="G16" s="45">
+        <f t="shared" ca="1" si="0"/>
+        <v>45782</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="52"/>
+    </row>
+    <row r="17" spans="1:9" s="41" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A17" s="30" t="str">
         <f>IF(AND(E17=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E16)+1,"##")&amp;"]")</f>
         <v>[GioHang-9]</v>
@@ -5967,10 +6000,16 @@
       <c r="F17" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="50"/>
-      <c r="H17" s="51"/>
-    </row>
-    <row r="18" spans="1:8" s="41" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+      <c r="G17" s="45">
+        <f t="shared" ca="1" si="0"/>
+        <v>45782</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="52"/>
+    </row>
+    <row r="18" spans="1:9" s="41" customFormat="1" ht="62" x14ac:dyDescent="0.35">
       <c r="A18" s="30" t="str">
         <f>IF(AND(E18=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E17)+1,"##")&amp;"]")</f>
         <v>[GioHang-10]</v>
@@ -5990,10 +6029,16 @@
       <c r="F18" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-    </row>
-    <row r="19" spans="1:8" s="41" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+      <c r="G18" s="45">
+        <f t="shared" ca="1" si="0"/>
+        <v>45782</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="52"/>
+    </row>
+    <row r="19" spans="1:9" s="41" customFormat="1" ht="62" x14ac:dyDescent="0.35">
       <c r="A19" s="30" t="str">
         <f>IF(AND(E19=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E18)+1,"##")&amp;"]")</f>
         <v>[GioHang-11]</v>
@@ -6001,7 +6046,7 @@
       <c r="B19" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="C19" s="73"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="36" t="s">
         <v>158</v>
       </c>
@@ -6011,10 +6056,16 @@
       <c r="F19" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="50"/>
-      <c r="H19" s="51"/>
-    </row>
-    <row r="20" spans="1:8" s="41" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="G19" s="45">
+        <f t="shared" ca="1" si="0"/>
+        <v>45782</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="52"/>
+    </row>
+    <row r="20" spans="1:9" s="41" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A20" s="30" t="str">
         <f>IF(AND(E20=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E19)+1,"##")&amp;"]")</f>
         <v>[GioHang-12]</v>
@@ -6032,10 +6083,16 @@
       <c r="F20" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="67"/>
-      <c r="H20" s="51"/>
-    </row>
-    <row r="21" spans="1:8" s="41" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G20" s="45">
+        <f t="shared" ca="1" si="0"/>
+        <v>45782</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="52"/>
+    </row>
+    <row r="21" spans="1:9" s="41" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="30"/>
       <c r="B21" s="31"/>
       <c r="C21" s="34"/>
@@ -6151,8 +6208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6171,12 +6228,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="118"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="117"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -6186,10 +6243,10 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="109"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -6199,12 +6256,12 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="109"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -6338,7 +6395,7 @@
       </c>
       <c r="G9" s="50">
         <f ca="1">TODAY()</f>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H9" s="51" t="s">
         <v>3</v>
@@ -6367,7 +6424,7 @@
       </c>
       <c r="G10" s="50">
         <f t="shared" ref="G10:G12" ca="1" si="0">TODAY()</f>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H10" s="51" t="s">
         <v>3</v>
@@ -6395,7 +6452,7 @@
       </c>
       <c r="G11" s="50">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H11" s="51" t="s">
         <v>3</v>
@@ -6423,7 +6480,7 @@
       </c>
       <c r="G12" s="50">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H12" s="51" t="s">
         <v>3</v>
@@ -6661,11 +6718,11 @@
       <c r="H22" s="51"/>
     </row>
     <row r="23" spans="1:8" s="41" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="105"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
+      <c r="A23" s="104"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
       <c r="F23" s="59"/>
       <c r="G23" s="67"/>
       <c r="H23" s="51"/>
@@ -6804,12 +6861,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="118"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="117"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -6819,10 +6876,10 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="109"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -6832,12 +6889,12 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="109"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -6971,7 +7028,7 @@
       </c>
       <c r="G9" s="50">
         <f ca="1">TODAY()</f>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H9" s="51" t="s">
         <v>3</v>
@@ -7000,7 +7057,7 @@
       </c>
       <c r="G10" s="50">
         <f t="shared" ref="G10:G18" ca="1" si="0">TODAY()</f>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H10" s="51" t="s">
         <v>3</v>
@@ -7028,7 +7085,7 @@
       </c>
       <c r="G11" s="50">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H11" s="51" t="s">
         <v>3</v>
@@ -7056,7 +7113,7 @@
       </c>
       <c r="G12" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H12" s="51" t="s">
         <v>3</v>
@@ -7084,7 +7141,7 @@
       </c>
       <c r="G13" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H13" s="51" t="s">
         <v>3</v>
@@ -7112,7 +7169,7 @@
       </c>
       <c r="G14" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H14" s="51" t="s">
         <v>3</v>
@@ -7140,7 +7197,7 @@
       </c>
       <c r="G15" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H15" s="51" t="s">
         <v>3</v>
@@ -7168,7 +7225,7 @@
       </c>
       <c r="G16" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H16" s="51" t="s">
         <v>3</v>
@@ -7196,7 +7253,7 @@
       </c>
       <c r="G17" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H17" s="51" t="s">
         <v>3</v>
@@ -7224,7 +7281,7 @@
       </c>
       <c r="G18" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H18" s="51" t="s">
         <v>3</v>
@@ -7272,7 +7329,7 @@
       <c r="H22" s="51"/>
     </row>
     <row r="23" spans="1:9" s="41" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="70"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="31"/>
       <c r="C23" s="34"/>
       <c r="D23" s="35"/>
@@ -7282,7 +7339,7 @@
       <c r="H23" s="51"/>
     </row>
     <row r="24" spans="1:9" s="41" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="70"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="31"/>
       <c r="C24" s="34"/>
       <c r="D24" s="35"/>
@@ -7461,12 +7518,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="116" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="118"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="117"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -7476,10 +7533,10 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="109"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -7489,12 +7546,12 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="120" t="s">
+      <c r="B3" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="109"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -7628,7 +7685,7 @@
       </c>
       <c r="G9" s="50">
         <f ca="1">TODAY()</f>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H9" s="51" t="s">
         <v>3</v>
@@ -7657,7 +7714,7 @@
       </c>
       <c r="G10" s="50">
         <f t="shared" ref="G10:G18" ca="1" si="0">TODAY()</f>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H10" s="51" t="s">
         <v>3</v>
@@ -7685,7 +7742,7 @@
       </c>
       <c r="G11" s="50">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H11" s="51" t="s">
         <v>3</v>
@@ -7713,7 +7770,7 @@
       </c>
       <c r="G12" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H12" s="51" t="s">
         <v>3</v>
@@ -7741,7 +7798,7 @@
       </c>
       <c r="G13" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H13" s="51" t="s">
         <v>3</v>
@@ -7769,7 +7826,7 @@
       </c>
       <c r="G14" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H14" s="51" t="s">
         <v>3</v>
@@ -7797,7 +7854,7 @@
       </c>
       <c r="G15" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H15" s="51" t="s">
         <v>3</v>
@@ -7825,7 +7882,7 @@
       </c>
       <c r="G16" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H16" s="51" t="s">
         <v>3</v>
@@ -7853,7 +7910,7 @@
       </c>
       <c r="G17" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H17" s="51" t="s">
         <v>3</v>
@@ -7881,7 +7938,7 @@
       </c>
       <c r="G18" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45773</v>
+        <v>45782</v>
       </c>
       <c r="H18" s="51" t="s">
         <v>3</v>
@@ -7929,7 +7986,7 @@
       <c r="H22" s="51"/>
     </row>
     <row r="23" spans="1:9" s="41" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="70"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="31"/>
       <c r="C23" s="34"/>
       <c r="D23" s="35"/>
@@ -7939,7 +7996,7 @@
       <c r="H23" s="51"/>
     </row>
     <row r="24" spans="1:9" s="41" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="70"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="31"/>
       <c r="C24" s="34"/>
       <c r="D24" s="35"/>

--- a/Testcase_DA3.xlsx
+++ b/Testcase_DA3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12130" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestReport" sheetId="12" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="274">
   <si>
     <t>Item Test</t>
   </si>
@@ -934,7 +934,19 @@
     <t>Tìm kiếm với chuỗi rỗng</t>
   </si>
   <si>
-    <t>Hệ thống thông báo lỗi "Emai"</t>
+    <t>Untested</t>
+  </si>
+  <si>
+    <t>Hệ thống thông báo lỗi "Số điện thoại không hợp lệ"</t>
+  </si>
+  <si>
+    <t>Execution  Type</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Manual</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1136,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1592,12 +1604,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1891,6 +1914,27 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1921,16 +1965,13 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="88">
+  <dxfs count="93">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2064,6 +2105,41 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3048,7 +3124,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3064,15 +3140,15 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24.5" x14ac:dyDescent="0.45">
       <c r="A1" s="74"/>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="75"/>
@@ -3089,60 +3165,60 @@
       <c r="B3" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="109" t="s">
+      <c r="D3" s="115"/>
+      <c r="E3" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="108"/>
-      <c r="G3" s="115" t="s">
+      <c r="F3" s="115"/>
+      <c r="G3" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="108"/>
+      <c r="H3" s="115"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="74"/>
       <c r="B4" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="108"/>
-      <c r="E4" s="109" t="s">
+      <c r="D4" s="115"/>
+      <c r="E4" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="108"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="108"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="115"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="74"/>
       <c r="B5" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="109" t="s">
+      <c r="C5" s="114"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="108"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="108"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="115"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="75"/>
       <c r="B6" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="108"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="115"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="75"/>
@@ -3524,8 +3600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3544,12 +3620,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="117"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="124"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -3559,10 +3635,10 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="108"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="115"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -3572,12 +3648,12 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="108"/>
+      <c r="B3" s="126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="115"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -3711,7 +3787,7 @@
       </c>
       <c r="G9" s="45">
         <f ca="1">TODAY()</f>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H9" s="69" t="s">
         <v>3</v>
@@ -3740,7 +3816,7 @@
       </c>
       <c r="G10" s="45">
         <f t="shared" ref="G10:G21" ca="1" si="0">TODAY()</f>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H10" s="69" t="s">
         <v>3</v>
@@ -3769,7 +3845,7 @@
       </c>
       <c r="G11" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H11" s="69" t="s">
         <v>3</v>
@@ -3798,7 +3874,7 @@
       </c>
       <c r="G12" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H12" s="69" t="s">
         <v>3</v>
@@ -3827,7 +3903,7 @@
       </c>
       <c r="G13" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H13" s="69" t="s">
         <v>3</v>
@@ -3856,7 +3932,7 @@
       </c>
       <c r="G14" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H14" s="69" t="s">
         <v>3</v>
@@ -3885,7 +3961,7 @@
       </c>
       <c r="G15" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H15" s="69" t="s">
         <v>3</v>
@@ -3914,7 +3990,7 @@
       </c>
       <c r="G16" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H16" s="69" t="s">
         <v>3</v>
@@ -3943,7 +4019,7 @@
       </c>
       <c r="G17" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H17" s="69" t="s">
         <v>3</v>
@@ -3972,7 +4048,7 @@
       </c>
       <c r="G18" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H18" s="69" t="s">
         <v>3</v>
@@ -4001,7 +4077,7 @@
       </c>
       <c r="G19" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H19" s="69" t="s">
         <v>3</v>
@@ -4030,7 +4106,7 @@
       </c>
       <c r="G20" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H20" s="69" t="s">
         <v>3</v>
@@ -4059,7 +4135,7 @@
       </c>
       <c r="G21" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H21" s="69" t="s">
         <v>3</v>
@@ -4088,7 +4164,7 @@
       </c>
       <c r="G22" s="50">
         <f t="shared" ref="G22:G23" ca="1" si="1">TODAY()</f>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H22" s="51" t="s">
         <v>3</v>
@@ -4117,7 +4193,7 @@
       </c>
       <c r="G23" s="50">
         <f t="shared" ca="1" si="1"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H23" s="51" t="s">
         <v>3</v>
@@ -4251,30 +4327,30 @@
     <mergeCell ref="B3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F8 F22:F35">
-    <cfRule type="cellIs" dxfId="87" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="6" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="7" operator="equal">
       <formula>Fail</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="8" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F21">
-    <cfRule type="cellIs" dxfId="83" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="2" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="3" operator="equal">
       <formula>Fail</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4296,7 +4372,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView zoomScale="111" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4314,12 +4390,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="117"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="124"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -4329,10 +4405,10 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="108"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="115"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -4342,12 +4418,12 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="108"/>
+      <c r="B3" s="126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="115"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -4481,7 +4557,7 @@
       </c>
       <c r="G9" s="45">
         <f t="shared" ref="G9:G20" ca="1" si="0">TODAY()</f>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H9" s="30" t="s">
         <v>3</v>
@@ -4510,7 +4586,7 @@
       </c>
       <c r="G10" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H10" s="30" t="s">
         <v>3</v>
@@ -4538,7 +4614,7 @@
       </c>
       <c r="G11" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H11" s="30" t="s">
         <v>3</v>
@@ -4566,7 +4642,7 @@
       </c>
       <c r="G12" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>3</v>
@@ -4594,7 +4670,7 @@
       </c>
       <c r="G13" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H13" s="30" t="s">
         <v>3</v>
@@ -4622,7 +4698,7 @@
       </c>
       <c r="G14" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H14" s="30" t="s">
         <v>3</v>
@@ -4637,7 +4713,7 @@
       <c r="F15" s="49"/>
       <c r="G15" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H15" s="30" t="s">
         <v>3</v>
@@ -4652,7 +4728,7 @@
       <c r="F16" s="49"/>
       <c r="G16" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H16" s="30" t="s">
         <v>3</v>
@@ -4667,7 +4743,7 @@
       <c r="F17" s="49"/>
       <c r="G17" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>3</v>
@@ -4682,7 +4758,7 @@
       <c r="F18" s="49"/>
       <c r="G18" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H18" s="30" t="s">
         <v>3</v>
@@ -4697,7 +4773,7 @@
       <c r="F19" s="49"/>
       <c r="G19" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H19" s="30" t="s">
         <v>3</v>
@@ -4712,7 +4788,7 @@
       <c r="F20" s="49"/>
       <c r="G20" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H20" s="30" t="s">
         <v>3</v>
@@ -4727,7 +4803,7 @@
       <c r="F21" s="44"/>
       <c r="G21" s="50">
         <f t="shared" ref="G21" ca="1" si="1">TODAY()</f>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H21" s="51" t="s">
         <v>3</v>
@@ -4862,30 +4938,30 @@
     <mergeCell ref="B3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F8 F21:F31">
-    <cfRule type="cellIs" dxfId="79" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="6" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="7" operator="equal">
       <formula>Fail</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="8" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F20">
-    <cfRule type="cellIs" dxfId="75" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="2" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="3" operator="equal">
       <formula>Fail</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4906,8 +4982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4925,12 +5001,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="117"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="124"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -4940,10 +5016,10 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="108"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="115"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -4953,12 +5029,12 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="108"/>
+      <c r="B3" s="126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="115"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -4992,11 +5068,11 @@
       </c>
       <c r="B5" s="14">
         <f>COUNTIF(F:F,"Fail")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="14">
         <f>COUNTIF(F:F,"Untested")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="15">
         <f>COUNTIF(F:F,"N/A")</f>
@@ -5092,7 +5168,7 @@
       </c>
       <c r="G9" s="62">
         <f ca="1">TODAY()</f>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H9" s="30" t="s">
         <v>3</v>
@@ -5120,7 +5196,7 @@
       </c>
       <c r="G10" s="62">
         <f t="shared" ref="G10:G16" ca="1" si="0">TODAY()</f>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H10" s="30" t="s">
         <v>3</v>
@@ -5148,7 +5224,7 @@
       </c>
       <c r="G11" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H11" s="30" t="s">
         <v>3</v>
@@ -5176,7 +5252,7 @@
       </c>
       <c r="G12" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>3</v>
@@ -5204,7 +5280,7 @@
       </c>
       <c r="G13" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H13" s="30" t="s">
         <v>3</v>
@@ -5228,11 +5304,11 @@
         <v>117</v>
       </c>
       <c r="F14" s="59" t="s">
-        <v>5</v>
+        <v>269</v>
       </c>
       <c r="G14" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H14" s="30" t="s">
         <v>3</v>
@@ -5260,7 +5336,7 @@
       </c>
       <c r="G15" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H15" s="30" t="s">
         <v>3</v>
@@ -5288,7 +5364,7 @@
       </c>
       <c r="G16" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H16" s="30" t="s">
         <v>3</v>
@@ -5497,72 +5573,72 @@
     <mergeCell ref="B3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F16">
-    <cfRule type="cellIs" dxfId="71" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="17" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="18" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="19" operator="equal">
       <formula>Fail</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="20" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="cellIs" dxfId="67" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="13" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="14" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="15" operator="equal">
       <formula>Fail</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="16" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="63" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="9" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="10" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="11" operator="equal">
       <formula>Fail</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="12" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="59" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="6" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="7" operator="equal">
       <formula>Fail</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="8" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:F33">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
       <formula>Fail</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5583,7 +5659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -5603,12 +5679,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="117"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="124"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -5618,10 +5694,10 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="108"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="115"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -5631,12 +5707,12 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="108"/>
+      <c r="B3" s="126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="115"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -5770,9 +5846,9 @@
       </c>
       <c r="G9" s="50">
         <f ca="1">TODAY()</f>
-        <v>45782</v>
-      </c>
-      <c r="H9" s="120" t="s">
+        <v>45793</v>
+      </c>
+      <c r="H9" s="107" t="s">
         <v>3</v>
       </c>
       <c r="I9" s="52"/>
@@ -5799,7 +5875,7 @@
       </c>
       <c r="G10" s="45">
         <f ca="1">TODAY()</f>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H10" s="30" t="s">
         <v>3</v>
@@ -5828,7 +5904,7 @@
       </c>
       <c r="G11" s="45">
         <f t="shared" ref="G11:G20" ca="1" si="0">TODAY()</f>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H11" s="30" t="s">
         <v>3</v>
@@ -5857,7 +5933,7 @@
       </c>
       <c r="G12" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>3</v>
@@ -5886,7 +5962,7 @@
       </c>
       <c r="G13" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H13" s="30" t="s">
         <v>3</v>
@@ -5915,7 +5991,7 @@
       </c>
       <c r="G14" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H14" s="30" t="s">
         <v>3</v>
@@ -5944,7 +6020,7 @@
       </c>
       <c r="G15" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H15" s="30" t="s">
         <v>3</v>
@@ -5973,7 +6049,7 @@
       </c>
       <c r="G16" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H16" s="30" t="s">
         <v>3</v>
@@ -6002,7 +6078,7 @@
       </c>
       <c r="G17" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>3</v>
@@ -6031,7 +6107,7 @@
       </c>
       <c r="G18" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H18" s="30" t="s">
         <v>3</v>
@@ -6058,7 +6134,7 @@
       </c>
       <c r="G19" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H19" s="30" t="s">
         <v>3</v>
@@ -6085,7 +6161,7 @@
       </c>
       <c r="G20" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H20" s="30" t="s">
         <v>3</v>
@@ -6109,86 +6185,86 @@
     <mergeCell ref="B3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F8 F13:F18">
-    <cfRule type="cellIs" dxfId="51" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="25" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="26" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="27" operator="equal">
       <formula>Fail</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="28" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="47" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="17" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="18" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="19" operator="equal">
       <formula>Fail</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="20" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F12">
-    <cfRule type="cellIs" dxfId="43" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="13" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="14" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="15" operator="equal">
       <formula>Fail</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="16" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="9" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="10" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="11" operator="equal">
       <formula>Fail</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="12" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
       <formula>Fail</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
       <formula>Fail</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6206,10 +6282,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6222,18 +6298,19 @@
     <col min="6" max="6" width="18.453125" customWidth="1"/>
     <col min="7" max="7" width="26.1796875" customWidth="1"/>
     <col min="8" max="8" width="16.08984375" customWidth="1"/>
+    <col min="9" max="9" width="20.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="117"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="124"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -6243,10 +6320,10 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="108"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="115"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -6256,12 +6333,12 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="108"/>
+      <c r="B3" s="126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="115"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -6360,17 +6437,17 @@
       <c r="E8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="40" t="s">
-        <v>17</v>
+      <c r="I8" s="103" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="41" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
@@ -6390,17 +6467,19 @@
       <c r="E9" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="50">
+      <c r="G9" s="62">
         <f ca="1">TODAY()</f>
-        <v>45782</v>
-      </c>
-      <c r="H9" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="52"/>
+        <v>45793</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="108" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="10" spans="1:9" s="41" customFormat="1" ht="155" x14ac:dyDescent="0.35">
       <c r="A10" s="30" t="str">
@@ -6419,15 +6498,18 @@
       <c r="E10" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="50">
-        <f t="shared" ref="G10:G12" ca="1" si="0">TODAY()</f>
-        <v>45782</v>
-      </c>
-      <c r="H10" s="51" t="s">
-        <v>3</v>
+      <c r="G10" s="62">
+        <f t="shared" ref="G10:G22" ca="1" si="0">TODAY()</f>
+        <v>45793</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="108" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="41" customFormat="1" ht="155" x14ac:dyDescent="0.35">
@@ -6445,18 +6527,19 @@
         <v>181</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="F11" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="50">
+      <c r="G11" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
-      </c>
-      <c r="H11" s="51" t="s">
-        <v>3</v>
-      </c>
+        <v>45793</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="108"/>
     </row>
     <row r="12" spans="1:9" s="41" customFormat="1" ht="155" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="str">
@@ -6475,16 +6558,17 @@
       <c r="E12" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
-      </c>
-      <c r="H12" s="51" t="s">
-        <v>3</v>
-      </c>
+        <v>45793</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="108"/>
     </row>
     <row r="13" spans="1:9" s="41" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="str">
@@ -6503,12 +6587,17 @@
       <c r="E13" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="F13" s="49" t="s">
+      <c r="F13" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="52"/>
+      <c r="G13" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>45793</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="108"/>
     </row>
     <row r="14" spans="1:9" s="41" customFormat="1" ht="155" x14ac:dyDescent="0.35">
       <c r="A14" s="30" t="str">
@@ -6527,11 +6616,17 @@
       <c r="E14" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
+      <c r="G14" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>45793</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="108"/>
     </row>
     <row r="15" spans="1:9" s="41" customFormat="1" ht="155" x14ac:dyDescent="0.35">
       <c r="A15" s="30" t="str">
@@ -6550,11 +6645,17 @@
       <c r="E15" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="51"/>
+      <c r="G15" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>45793</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="108"/>
     </row>
     <row r="16" spans="1:9" s="41" customFormat="1" ht="155" x14ac:dyDescent="0.35">
       <c r="A16" s="30" t="str">
@@ -6573,13 +6674,19 @@
       <c r="E16" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="51"/>
-    </row>
-    <row r="17" spans="1:8" s="41" customFormat="1" ht="155" x14ac:dyDescent="0.35">
+      <c r="G16" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>45793</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="108"/>
+    </row>
+    <row r="17" spans="1:9" s="41" customFormat="1" ht="155" x14ac:dyDescent="0.35">
       <c r="A17" s="30" t="str">
         <f>IF(AND(E17=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E16)+1,"##")&amp;"]")</f>
         <v>[DatHang-9]</v>
@@ -6596,13 +6703,19 @@
       <c r="E17" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="50"/>
-      <c r="H17" s="51"/>
-    </row>
-    <row r="18" spans="1:8" s="41" customFormat="1" ht="155" x14ac:dyDescent="0.35">
+      <c r="G17" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>45793</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="108"/>
+    </row>
+    <row r="18" spans="1:9" s="41" customFormat="1" ht="155" x14ac:dyDescent="0.35">
       <c r="A18" s="30" t="str">
         <f>IF(AND(E18=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E17)+1,"##")&amp;"]")</f>
         <v>[DatHang-10]</v>
@@ -6619,13 +6732,19 @@
       <c r="E18" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-    </row>
-    <row r="19" spans="1:8" s="41" customFormat="1" ht="124" x14ac:dyDescent="0.35">
+      <c r="G18" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>45793</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="108"/>
+    </row>
+    <row r="19" spans="1:9" s="41" customFormat="1" ht="124" x14ac:dyDescent="0.35">
       <c r="A19" s="30" t="str">
         <f>IF(AND(E19=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E18)+1,"##")&amp;"]")</f>
         <v>[DatHang-11]</v>
@@ -6642,13 +6761,19 @@
       <c r="E19" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="F19" s="49" t="s">
+      <c r="F19" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="50"/>
-      <c r="H19" s="51"/>
-    </row>
-    <row r="20" spans="1:8" s="41" customFormat="1" ht="77.5" x14ac:dyDescent="0.35">
+      <c r="G19" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>45793</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="108"/>
+    </row>
+    <row r="20" spans="1:9" s="41" customFormat="1" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A20" s="30" t="str">
         <f>IF(AND(E20=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E19)+1,"##")&amp;"]")</f>
         <v>[DatHang-12]</v>
@@ -6665,13 +6790,19 @@
       <c r="E20" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="F20" s="49" t="s">
+      <c r="F20" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="50"/>
-      <c r="H20" s="51"/>
-    </row>
-    <row r="21" spans="1:8" s="41" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+      <c r="G20" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>45793</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="108"/>
+    </row>
+    <row r="21" spans="1:9" s="41" customFormat="1" ht="93" x14ac:dyDescent="0.35">
       <c r="A21" s="30" t="str">
         <f>IF(AND(E21=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E20)+1,"##")&amp;"]")</f>
         <v>[DatHang-13]</v>
@@ -6691,10 +6822,16 @@
       <c r="F21" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="67"/>
-      <c r="H21" s="51"/>
-    </row>
-    <row r="22" spans="1:8" s="41" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="G21" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>45793</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="108"/>
+    </row>
+    <row r="22" spans="1:9" s="41" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A22" s="30" t="str">
         <f>IF(AND(E22=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$8:E21)+1,"##")&amp;"]")</f>
         <v>[DatHang-14]</v>
@@ -6714,20 +6851,27 @@
       <c r="F22" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="67"/>
-      <c r="H22" s="51"/>
-    </row>
-    <row r="23" spans="1:8" s="41" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G22" s="62">
+        <f t="shared" ca="1" si="0"/>
+        <v>45793</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="108"/>
+    </row>
+    <row r="23" spans="1:9" s="41" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="104"/>
       <c r="B23" s="73"/>
       <c r="C23" s="105"/>
       <c r="D23" s="106"/>
       <c r="E23" s="106"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="51"/>
-    </row>
-    <row r="24" spans="1:8" s="41" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F23" s="112"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="109"/>
+    </row>
+    <row r="24" spans="1:9" s="41" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="30"/>
       <c r="B24" s="31"/>
       <c r="C24" s="34"/>
@@ -6736,8 +6880,9 @@
       <c r="F24" s="59"/>
       <c r="G24" s="67"/>
       <c r="H24" s="51"/>
-    </row>
-    <row r="25" spans="1:8" s="41" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I24" s="109"/>
+    </row>
+    <row r="25" spans="1:9" s="41" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="30"/>
       <c r="B25" s="31"/>
       <c r="C25" s="34"/>
@@ -6746,8 +6891,9 @@
       <c r="F25" s="59"/>
       <c r="G25" s="68"/>
       <c r="H25" s="51"/>
-    </row>
-    <row r="26" spans="1:8" s="41" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I25" s="109"/>
+    </row>
+    <row r="26" spans="1:9" s="41" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="30"/>
       <c r="B26" s="31"/>
       <c r="C26" s="34"/>
@@ -6756,8 +6902,9 @@
       <c r="F26" s="59"/>
       <c r="G26" s="68"/>
       <c r="H26" s="51"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I26" s="109"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="30"/>
       <c r="B27" s="31"/>
       <c r="C27" s="34"/>
@@ -6766,8 +6913,9 @@
       <c r="F27" s="59"/>
       <c r="G27" s="68"/>
       <c r="H27" s="51"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I27" s="110"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="30"/>
       <c r="B28" s="31"/>
       <c r="C28" s="34"/>
@@ -6776,6 +6924,16 @@
       <c r="F28" s="59"/>
       <c r="G28" s="68"/>
       <c r="H28" s="51"/>
+      <c r="I28" s="110"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I29" s="110"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I30" s="110"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I31" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6784,53 +6942,77 @@
     <mergeCell ref="B3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F12">
-    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="19" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="20" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="21" operator="equal">
       <formula>Fail</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="22" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F21">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="11" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="12" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
       <formula>Fail</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F28">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
       <formula>Fail</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <conditionalFormatting sqref="I1:I8 I23:I1048576">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+      <formula>"""Automation"""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:I22">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+      <formula>"""Manual"""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+      <formula>"Automation"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
+      <formula>"Manual"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:I23">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+      <formula>"Manual"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:H2">
       <formula1>$J$1:$J$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F9:F28">
       <formula1>"Pass,Fail,N/A,Untested"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I22">
+      <formula1>"Automation,Manual"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6861,12 +7043,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="117"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="124"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -6876,10 +7058,10 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="108"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="115"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -6889,12 +7071,12 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="108"/>
+      <c r="B3" s="126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="115"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -7028,7 +7210,7 @@
       </c>
       <c r="G9" s="50">
         <f ca="1">TODAY()</f>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H9" s="51" t="s">
         <v>3</v>
@@ -7057,7 +7239,7 @@
       </c>
       <c r="G10" s="50">
         <f t="shared" ref="G10:G18" ca="1" si="0">TODAY()</f>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H10" s="51" t="s">
         <v>3</v>
@@ -7085,7 +7267,7 @@
       </c>
       <c r="G11" s="50">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H11" s="51" t="s">
         <v>3</v>
@@ -7113,7 +7295,7 @@
       </c>
       <c r="G12" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H12" s="51" t="s">
         <v>3</v>
@@ -7141,7 +7323,7 @@
       </c>
       <c r="G13" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H13" s="51" t="s">
         <v>3</v>
@@ -7169,7 +7351,7 @@
       </c>
       <c r="G14" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H14" s="51" t="s">
         <v>3</v>
@@ -7197,7 +7379,7 @@
       </c>
       <c r="G15" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H15" s="51" t="s">
         <v>3</v>
@@ -7225,7 +7407,7 @@
       </c>
       <c r="G16" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H16" s="51" t="s">
         <v>3</v>
@@ -7253,7 +7435,7 @@
       </c>
       <c r="G17" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H17" s="51" t="s">
         <v>3</v>
@@ -7281,7 +7463,7 @@
       </c>
       <c r="G18" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H18" s="51" t="s">
         <v>3</v>
@@ -7498,8 +7680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7518,12 +7700,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="123" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="117"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="124"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -7533,10 +7715,10 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="108"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="115"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -7546,12 +7728,12 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="108"/>
+      <c r="B3" s="126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="115"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -7685,7 +7867,7 @@
       </c>
       <c r="G9" s="50">
         <f ca="1">TODAY()</f>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H9" s="51" t="s">
         <v>3</v>
@@ -7714,7 +7896,7 @@
       </c>
       <c r="G10" s="50">
         <f t="shared" ref="G10:G18" ca="1" si="0">TODAY()</f>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H10" s="51" t="s">
         <v>3</v>
@@ -7742,7 +7924,7 @@
       </c>
       <c r="G11" s="50">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H11" s="51" t="s">
         <v>3</v>
@@ -7770,7 +7952,7 @@
       </c>
       <c r="G12" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H12" s="51" t="s">
         <v>3</v>
@@ -7798,7 +7980,7 @@
       </c>
       <c r="G13" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H13" s="51" t="s">
         <v>3</v>
@@ -7826,7 +8008,7 @@
       </c>
       <c r="G14" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H14" s="51" t="s">
         <v>3</v>
@@ -7854,7 +8036,7 @@
       </c>
       <c r="G15" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H15" s="51" t="s">
         <v>3</v>
@@ -7882,7 +8064,7 @@
       </c>
       <c r="G16" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H16" s="51" t="s">
         <v>3</v>
@@ -7910,7 +8092,7 @@
       </c>
       <c r="G17" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H17" s="51" t="s">
         <v>3</v>
@@ -7938,7 +8120,7 @@
       </c>
       <c r="G18" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45782</v>
+        <v>45793</v>
       </c>
       <c r="H18" s="51" t="s">
         <v>3</v>

--- a/Testcase_DA3.xlsx
+++ b/Testcase_DA3.xlsx
@@ -26,6 +26,7 @@
     <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3123,8 +3124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3600,8 +3601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3787,7 +3788,7 @@
       </c>
       <c r="G9" s="45">
         <f ca="1">TODAY()</f>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H9" s="69" t="s">
         <v>3</v>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="G10" s="45">
         <f t="shared" ref="G10:G21" ca="1" si="0">TODAY()</f>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H10" s="69" t="s">
         <v>3</v>
@@ -3845,7 +3846,7 @@
       </c>
       <c r="G11" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H11" s="69" t="s">
         <v>3</v>
@@ -3874,7 +3875,7 @@
       </c>
       <c r="G12" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H12" s="69" t="s">
         <v>3</v>
@@ -3903,7 +3904,7 @@
       </c>
       <c r="G13" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H13" s="69" t="s">
         <v>3</v>
@@ -3932,7 +3933,7 @@
       </c>
       <c r="G14" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H14" s="69" t="s">
         <v>3</v>
@@ -3961,7 +3962,7 @@
       </c>
       <c r="G15" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H15" s="69" t="s">
         <v>3</v>
@@ -3990,7 +3991,7 @@
       </c>
       <c r="G16" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H16" s="69" t="s">
         <v>3</v>
@@ -4019,7 +4020,7 @@
       </c>
       <c r="G17" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H17" s="69" t="s">
         <v>3</v>
@@ -4048,7 +4049,7 @@
       </c>
       <c r="G18" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H18" s="69" t="s">
         <v>3</v>
@@ -4077,7 +4078,7 @@
       </c>
       <c r="G19" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H19" s="69" t="s">
         <v>3</v>
@@ -4106,7 +4107,7 @@
       </c>
       <c r="G20" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H20" s="69" t="s">
         <v>3</v>
@@ -4135,7 +4136,7 @@
       </c>
       <c r="G21" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H21" s="69" t="s">
         <v>3</v>
@@ -4164,7 +4165,7 @@
       </c>
       <c r="G22" s="50">
         <f t="shared" ref="G22:G23" ca="1" si="1">TODAY()</f>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H22" s="51" t="s">
         <v>3</v>
@@ -4193,7 +4194,7 @@
       </c>
       <c r="G23" s="50">
         <f t="shared" ca="1" si="1"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H23" s="51" t="s">
         <v>3</v>
@@ -4557,7 +4558,7 @@
       </c>
       <c r="G9" s="45">
         <f t="shared" ref="G9:G20" ca="1" si="0">TODAY()</f>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H9" s="30" t="s">
         <v>3</v>
@@ -4586,7 +4587,7 @@
       </c>
       <c r="G10" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H10" s="30" t="s">
         <v>3</v>
@@ -4614,7 +4615,7 @@
       </c>
       <c r="G11" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H11" s="30" t="s">
         <v>3</v>
@@ -4642,7 +4643,7 @@
       </c>
       <c r="G12" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>3</v>
@@ -4670,7 +4671,7 @@
       </c>
       <c r="G13" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H13" s="30" t="s">
         <v>3</v>
@@ -4698,7 +4699,7 @@
       </c>
       <c r="G14" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H14" s="30" t="s">
         <v>3</v>
@@ -4713,7 +4714,7 @@
       <c r="F15" s="49"/>
       <c r="G15" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H15" s="30" t="s">
         <v>3</v>
@@ -4728,7 +4729,7 @@
       <c r="F16" s="49"/>
       <c r="G16" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H16" s="30" t="s">
         <v>3</v>
@@ -4743,7 +4744,7 @@
       <c r="F17" s="49"/>
       <c r="G17" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>3</v>
@@ -4758,7 +4759,7 @@
       <c r="F18" s="49"/>
       <c r="G18" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H18" s="30" t="s">
         <v>3</v>
@@ -4773,7 +4774,7 @@
       <c r="F19" s="49"/>
       <c r="G19" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H19" s="30" t="s">
         <v>3</v>
@@ -4788,7 +4789,7 @@
       <c r="F20" s="49"/>
       <c r="G20" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H20" s="30" t="s">
         <v>3</v>
@@ -4803,7 +4804,7 @@
       <c r="F21" s="44"/>
       <c r="G21" s="50">
         <f t="shared" ref="G21" ca="1" si="1">TODAY()</f>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H21" s="51" t="s">
         <v>3</v>
@@ -5168,7 +5169,7 @@
       </c>
       <c r="G9" s="62">
         <f ca="1">TODAY()</f>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H9" s="30" t="s">
         <v>3</v>
@@ -5196,7 +5197,7 @@
       </c>
       <c r="G10" s="62">
         <f t="shared" ref="G10:G16" ca="1" si="0">TODAY()</f>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H10" s="30" t="s">
         <v>3</v>
@@ -5224,7 +5225,7 @@
       </c>
       <c r="G11" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H11" s="30" t="s">
         <v>3</v>
@@ -5252,7 +5253,7 @@
       </c>
       <c r="G12" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>3</v>
@@ -5280,7 +5281,7 @@
       </c>
       <c r="G13" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H13" s="30" t="s">
         <v>3</v>
@@ -5308,7 +5309,7 @@
       </c>
       <c r="G14" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H14" s="30" t="s">
         <v>3</v>
@@ -5336,7 +5337,7 @@
       </c>
       <c r="G15" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H15" s="30" t="s">
         <v>3</v>
@@ -5364,7 +5365,7 @@
       </c>
       <c r="G16" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H16" s="30" t="s">
         <v>3</v>
@@ -5846,7 +5847,7 @@
       </c>
       <c r="G9" s="50">
         <f ca="1">TODAY()</f>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H9" s="107" t="s">
         <v>3</v>
@@ -5875,7 +5876,7 @@
       </c>
       <c r="G10" s="45">
         <f ca="1">TODAY()</f>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H10" s="30" t="s">
         <v>3</v>
@@ -5904,7 +5905,7 @@
       </c>
       <c r="G11" s="45">
         <f t="shared" ref="G11:G20" ca="1" si="0">TODAY()</f>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H11" s="30" t="s">
         <v>3</v>
@@ -5933,7 +5934,7 @@
       </c>
       <c r="G12" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>3</v>
@@ -5962,7 +5963,7 @@
       </c>
       <c r="G13" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H13" s="30" t="s">
         <v>3</v>
@@ -5991,7 +5992,7 @@
       </c>
       <c r="G14" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H14" s="30" t="s">
         <v>3</v>
@@ -6020,7 +6021,7 @@
       </c>
       <c r="G15" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H15" s="30" t="s">
         <v>3</v>
@@ -6049,7 +6050,7 @@
       </c>
       <c r="G16" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H16" s="30" t="s">
         <v>3</v>
@@ -6078,7 +6079,7 @@
       </c>
       <c r="G17" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>3</v>
@@ -6107,7 +6108,7 @@
       </c>
       <c r="G18" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H18" s="30" t="s">
         <v>3</v>
@@ -6134,7 +6135,7 @@
       </c>
       <c r="G19" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H19" s="30" t="s">
         <v>3</v>
@@ -6161,7 +6162,7 @@
       </c>
       <c r="G20" s="45">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H20" s="30" t="s">
         <v>3</v>
@@ -6472,7 +6473,7 @@
       </c>
       <c r="G9" s="62">
         <f ca="1">TODAY()</f>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H9" s="30" t="s">
         <v>3</v>
@@ -6503,7 +6504,7 @@
       </c>
       <c r="G10" s="62">
         <f t="shared" ref="G10:G22" ca="1" si="0">TODAY()</f>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H10" s="30" t="s">
         <v>3</v>
@@ -6534,7 +6535,7 @@
       </c>
       <c r="G11" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H11" s="30" t="s">
         <v>3</v>
@@ -6563,7 +6564,7 @@
       </c>
       <c r="G12" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>3</v>
@@ -6592,7 +6593,7 @@
       </c>
       <c r="G13" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H13" s="30" t="s">
         <v>3</v>
@@ -6621,7 +6622,7 @@
       </c>
       <c r="G14" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H14" s="30" t="s">
         <v>3</v>
@@ -6650,7 +6651,7 @@
       </c>
       <c r="G15" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H15" s="30" t="s">
         <v>3</v>
@@ -6679,7 +6680,7 @@
       </c>
       <c r="G16" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H16" s="30" t="s">
         <v>3</v>
@@ -6708,7 +6709,7 @@
       </c>
       <c r="G17" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>3</v>
@@ -6737,7 +6738,7 @@
       </c>
       <c r="G18" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H18" s="30" t="s">
         <v>3</v>
@@ -6766,7 +6767,7 @@
       </c>
       <c r="G19" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H19" s="30" t="s">
         <v>3</v>
@@ -6795,7 +6796,7 @@
       </c>
       <c r="G20" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H20" s="30" t="s">
         <v>3</v>
@@ -6824,7 +6825,7 @@
       </c>
       <c r="G21" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H21" s="30" t="s">
         <v>3</v>
@@ -6853,7 +6854,7 @@
       </c>
       <c r="G22" s="62">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H22" s="30" t="s">
         <v>3</v>
@@ -7210,7 +7211,7 @@
       </c>
       <c r="G9" s="50">
         <f ca="1">TODAY()</f>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H9" s="51" t="s">
         <v>3</v>
@@ -7239,7 +7240,7 @@
       </c>
       <c r="G10" s="50">
         <f t="shared" ref="G10:G18" ca="1" si="0">TODAY()</f>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H10" s="51" t="s">
         <v>3</v>
@@ -7267,7 +7268,7 @@
       </c>
       <c r="G11" s="50">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H11" s="51" t="s">
         <v>3</v>
@@ -7295,7 +7296,7 @@
       </c>
       <c r="G12" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H12" s="51" t="s">
         <v>3</v>
@@ -7323,7 +7324,7 @@
       </c>
       <c r="G13" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H13" s="51" t="s">
         <v>3</v>
@@ -7351,7 +7352,7 @@
       </c>
       <c r="G14" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H14" s="51" t="s">
         <v>3</v>
@@ -7379,7 +7380,7 @@
       </c>
       <c r="G15" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H15" s="51" t="s">
         <v>3</v>
@@ -7407,7 +7408,7 @@
       </c>
       <c r="G16" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H16" s="51" t="s">
         <v>3</v>
@@ -7435,7 +7436,7 @@
       </c>
       <c r="G17" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H17" s="51" t="s">
         <v>3</v>
@@ -7463,7 +7464,7 @@
       </c>
       <c r="G18" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H18" s="51" t="s">
         <v>3</v>
@@ -7867,7 +7868,7 @@
       </c>
       <c r="G9" s="50">
         <f ca="1">TODAY()</f>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H9" s="51" t="s">
         <v>3</v>
@@ -7896,7 +7897,7 @@
       </c>
       <c r="G10" s="50">
         <f t="shared" ref="G10:G18" ca="1" si="0">TODAY()</f>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H10" s="51" t="s">
         <v>3</v>
@@ -7924,7 +7925,7 @@
       </c>
       <c r="G11" s="50">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H11" s="51" t="s">
         <v>3</v>
@@ -7952,7 +7953,7 @@
       </c>
       <c r="G12" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H12" s="51" t="s">
         <v>3</v>
@@ -7980,7 +7981,7 @@
       </c>
       <c r="G13" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H13" s="51" t="s">
         <v>3</v>
@@ -8008,7 +8009,7 @@
       </c>
       <c r="G14" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H14" s="51" t="s">
         <v>3</v>
@@ -8036,7 +8037,7 @@
       </c>
       <c r="G15" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H15" s="51" t="s">
         <v>3</v>
@@ -8064,7 +8065,7 @@
       </c>
       <c r="G16" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H16" s="51" t="s">
         <v>3</v>
@@ -8092,7 +8093,7 @@
       </c>
       <c r="G17" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H17" s="51" t="s">
         <v>3</v>
@@ -8120,7 +8121,7 @@
       </c>
       <c r="G18" s="67">
         <f t="shared" ca="1" si="0"/>
-        <v>45793</v>
+        <v>45813</v>
       </c>
       <c r="H18" s="51" t="s">
         <v>3</v>
